--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="6255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,6 @@
     <t>Weeks</t>
   </si>
   <si>
-    <t>Duration
-(Weeks)</t>
-  </si>
-  <si>
     <t>Start
 (Week)</t>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>Proof of Concept</t>
+  </si>
+  <si>
+    <t>End
+(Week)</t>
   </si>
 </sst>
 </file>
@@ -151,6 +151,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -165,9 +168,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +494,7 @@
   <dimension ref="B1:V15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,65 +506,65 @@
   <sheetData>
     <row r="1" spans="2:22" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2">
         <v>1</v>
       </c>
@@ -650,8 +650,8 @@
       <c r="V5" s="5"/>
     </row>
     <row r="6" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>12</v>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -738,13 +738,13 @@
     </row>
     <row r="9" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -767,13 +767,13 @@
     </row>
     <row r="10" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
         <v>14</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>6</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -799,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4">
         <v>14</v>

--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeliH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeliH\Documents\GitHub\ME462-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,6 +23,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Melih</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Melih:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+February 3 - February 9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Melih:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+July 13 - July 19</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Melih:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+July 20 - July 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Melih:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+July 27 - August 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
@@ -78,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +207,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,22 +609,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AD15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
-    <col min="5" max="26" width="3.7109375" customWidth="1"/>
+    <col min="5" max="34" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:30" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
@@ -529,8 +648,16 @@
       <c r="T2" s="11"/>
       <c r="U2" s="11"/>
       <c r="V2" s="11"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -560,8 +687,16 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -619,8 +754,32 @@
       <c r="V4" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="2">
+        <v>19</v>
+      </c>
+      <c r="X4" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -648,8 +807,16 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+    </row>
+    <row r="6" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
@@ -677,8 +844,16 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+    </row>
+    <row r="7" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -706,8 +881,16 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+    </row>
+    <row r="8" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -735,8 +918,16 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+    </row>
+    <row r="9" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -744,7 +935,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -764,8 +955,16 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -773,7 +972,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -793,16 +992,24 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+    </row>
+    <row r="11" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -822,16 +1029,24 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+    </row>
+    <row r="12" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -851,8 +1066,16 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+    </row>
+    <row r="13" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
@@ -860,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -880,16 +1103,24 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+    </row>
+    <row r="14" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -909,8 +1140,16 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="2:22" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+    </row>
+    <row r="15" spans="2:30" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -932,21 +1171,30 @@
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:V3"/>
-    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="E3:AD3"/>
+    <mergeCell ref="B2:AD2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:V15">
+  <conditionalFormatting sqref="E5:AD15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(E$4&gt;=$C5,E$4&lt;=$D5)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>